--- a/mapping/OBI_OSMO.xlsx
+++ b/mapping/OBI_OSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>OBI_IRI</t>
   </si>
@@ -28,28 +28,142 @@
     <t>OSMO_DESC</t>
   </si>
   <si>
+    <t>OSMO_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000010</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000065</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000301</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/APOLLO_SV_00000008</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000591</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000592</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000593</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000595</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000456</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000319</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000372</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000018</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000055</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000242</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600010</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001943</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002473</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002474</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600018</t>
+  </si>
+  <si>
     <t>{'label': 'software', 'prefLabel': 'software', 'altLabel': None, 'name': 'IAO_0000010'}</t>
   </si>
   <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000065'}</t>
+  </si>
+  <si>
     <t>{'label': 'citation', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000301'}</t>
   </si>
   <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'APOLLO_SV_00000008'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000591'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000592'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000593'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'IAO_0000595'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000456'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000319'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000372'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000018'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000055'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0000242'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600010'}</t>
+  </si>
+  <si>
+    <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0001943'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002473'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0002474'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material', 'prefLabel': None, 'altLabel': None, 'name': 'OBI_0600018'}</t>
+  </si>
+  <si>
     <t>https://purl.vimmp.eu/semantics/osmo/osmo.ttl#software</t>
   </si>
   <si>
     <t>https://purl.vimmp.eu/semantics/otras/otras.ttl#citation</t>
   </si>
   <si>
+    <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#material</t>
+  </si>
+  <si>
     <t>{'name': 'software'}</t>
   </si>
   <si>
     <t>{'name': 'citation'}</t>
+  </si>
+  <si>
+    <t>{'name': 'material'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -420,13 +534,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,39 +553,388 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +942,41 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2" location="software"/>
     <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4" location="citation"/>
+    <hyperlink ref="D3" r:id="rId4" location="software"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6" location="citation"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8" location="software"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10" location="software"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12" location="software"/>
+    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14" location="software"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16" location="software"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18" location="material"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20" location="material"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22" location="material"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24" location="material"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26" location="software"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28" location="software"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30" location="material"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32" location="software"/>
+    <hyperlink ref="B18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34" location="material"/>
+    <hyperlink ref="B19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36" location="material"/>
+    <hyperlink ref="B20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38" location="material"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
